--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/42/word_level_predictions_42.xlsx
@@ -1022,158 +1022,158 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" t="n">
         <v>0</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>gear</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>gear</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>lowered</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>12</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9342,210 +9342,210 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K173" t="b">
-        <v>1</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/42/word_level_predictions_42.xlsx
@@ -1022,158 +1022,158 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>lowered</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G131" t="b">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G132" t="b">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9342,210 +9342,210 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>6</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>32</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" t="n">
         <v>6</v>
       </c>
-      <c r="B173" s="2" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C173" s="2" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" t="n">
         <v>33</v>
       </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>6</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" t="n">
         <v>34</v>
       </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>6</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" t="n">
         <v>35</v>
       </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
